--- a/team_specific_matrix/Indiana St._A.xlsx
+++ b/team_specific_matrix/Indiana St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1659919028340081</v>
+        <v>0.1889250814332248</v>
       </c>
       <c r="C2">
-        <v>0.6234817813765182</v>
+        <v>0.5830618892508144</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.003257328990228013</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1417004048582996</v>
+        <v>0.1530944625407166</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06882591093117409</v>
+        <v>0.07166123778501629</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02515723270440252</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006289308176100629</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8805031446540881</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0880503144654088</v>
+        <v>0.09782608695652174</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7567567567567568</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2432432432432433</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05780346820809248</v>
+        <v>0.04739336492890995</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005780346820809248</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03468208092485549</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2023121387283237</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04046242774566474</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1676300578034682</v>
+        <v>0.1800947867298578</v>
       </c>
       <c r="R6">
-        <v>0.08670520231213873</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="S6">
-        <v>0.4046242774566474</v>
+        <v>0.3744075829383886</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09448818897637795</v>
+        <v>0.09036144578313253</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05511811023622047</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1338582677165354</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007874015748031496</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1732283464566929</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="R7">
-        <v>0.1496062992125984</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="S7">
-        <v>0.3858267716535433</v>
+        <v>0.3674698795180723</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09501187648456057</v>
+        <v>0.0962671905697446</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01900237529691211</v>
+        <v>0.02357563850687623</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07363420427553444</v>
+        <v>0.06679764243614932</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08076009501187649</v>
+        <v>0.08447937131630648</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02850356294536817</v>
+        <v>0.02946954813359529</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.173396674584323</v>
+        <v>0.1669941060903733</v>
       </c>
       <c r="R8">
-        <v>0.1068883610451306</v>
+        <v>0.1198428290766208</v>
       </c>
       <c r="S8">
-        <v>0.4228028503562946</v>
+        <v>0.412573673870334</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1275167785234899</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02684563758389262</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06711409395973154</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0738255033557047</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03355704697986577</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1812080536912752</v>
+        <v>0.1807909604519774</v>
       </c>
       <c r="R9">
-        <v>0.1677852348993289</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="S9">
-        <v>0.3221476510067114</v>
+        <v>0.3446327683615819</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1126760563380282</v>
+        <v>0.1166407465007776</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02253521126760564</v>
+        <v>0.02021772939346812</v>
       </c>
       <c r="E10">
-        <v>0.001877934272300469</v>
+        <v>0.001555209953343701</v>
       </c>
       <c r="F10">
-        <v>0.07136150234741784</v>
+        <v>0.07387247278382582</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08075117370892018</v>
+        <v>0.08242612752721618</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01220657276995305</v>
+        <v>0.01399688958009331</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2009389671361502</v>
+        <v>0.2068429237947123</v>
       </c>
       <c r="R10">
-        <v>0.1352112676056338</v>
+        <v>0.1283048211508554</v>
       </c>
       <c r="S10">
-        <v>0.3624413145539906</v>
+        <v>0.3561430793157076</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.106951871657754</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1176470588235294</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="K11">
-        <v>0.1764705882352941</v>
+        <v>0.1701244813278008</v>
       </c>
       <c r="L11">
-        <v>0.5935828877005348</v>
+        <v>0.6058091286307054</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0053475935828877</v>
+        <v>0.004149377593360996</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6982758620689655</v>
+        <v>0.6887417218543046</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2241379310344828</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="K12">
-        <v>0.008620689655172414</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="L12">
-        <v>0.03448275862068965</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03448275862068965</v>
+        <v>0.03973509933774835</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7714285714285715</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1707317073170732</v>
+        <v>0.1692913385826772</v>
       </c>
       <c r="I15">
-        <v>0.07317073170731707</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="J15">
-        <v>0.3902439024390244</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="K15">
-        <v>0.02439024390243903</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00975609756097561</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="N15">
-        <v>0.004878048780487805</v>
+        <v>0.003937007874015748</v>
       </c>
       <c r="O15">
-        <v>0.06341463414634146</v>
+        <v>0.05511811023622047</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2634146341463415</v>
+        <v>0.2834645669291339</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0154639175257732</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1701030927835052</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="I16">
-        <v>0.07731958762886598</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="J16">
-        <v>0.4175257731958763</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="K16">
-        <v>0.07731958762886598</v>
+        <v>0.07327586206896551</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02061855670103093</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N16">
-        <v>0.005154639175257732</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="O16">
-        <v>0.09278350515463918</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1237113402061856</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01662049861495845</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1939058171745152</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="I17">
-        <v>0.07479224376731301</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="J17">
-        <v>0.4903047091412742</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="K17">
-        <v>0.07756232686980609</v>
+        <v>0.09111111111111111</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0221606648199446</v>
+        <v>0.02</v>
       </c>
       <c r="N17">
-        <v>0.00554016620498615</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="O17">
-        <v>0.04155124653739612</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07756232686980609</v>
+        <v>0.09555555555555556</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004132231404958678</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2066115702479339</v>
+        <v>0.1986531986531987</v>
       </c>
       <c r="I18">
-        <v>0.07851239669421488</v>
+        <v>0.07744107744107744</v>
       </c>
       <c r="J18">
-        <v>0.4297520661157025</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="K18">
-        <v>0.0743801652892562</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03305785123966942</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09504132231404959</v>
+        <v>0.08417508417508418</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07851239669421488</v>
+        <v>0.08754208754208755</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00911854103343465</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2330293819655522</v>
+        <v>0.2257261410788382</v>
       </c>
       <c r="I19">
-        <v>0.07497467071935157</v>
+        <v>0.07302904564315353</v>
       </c>
       <c r="J19">
-        <v>0.403242147922999</v>
+        <v>0.4024896265560166</v>
       </c>
       <c r="K19">
-        <v>0.0851063829787234</v>
+        <v>0.08796680497925312</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01418439716312057</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="N19">
-        <v>0.001013171225937183</v>
+        <v>0.0008298755186721991</v>
       </c>
       <c r="O19">
-        <v>0.0790273556231003</v>
+        <v>0.08132780082987552</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1003039513677812</v>
+        <v>0.1037344398340249</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Indiana St._A.xlsx
+++ b/team_specific_matrix/Indiana St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1889250814332248</v>
+        <v>0.1832298136645963</v>
       </c>
       <c r="C2">
-        <v>0.5830618892508144</v>
+        <v>0.5962732919254659</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003257328990228013</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1530944625407166</v>
+        <v>0.1459627329192547</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07166123778501629</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02173913043478261</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0108695652173913</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8695652173913043</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.09782608695652174</v>
+        <v>0.1060606060606061</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7555555555555555</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2444444444444444</v>
+        <v>0.2075471698113208</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04739336492890995</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009478672985781991</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04265402843601896</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1990521327014218</v>
+        <v>0.1945701357466063</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04265402843601896</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1800947867298578</v>
+        <v>0.1855203619909502</v>
       </c>
       <c r="R6">
-        <v>0.1042654028436019</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="S6">
-        <v>0.3744075829383886</v>
+        <v>0.3755656108597285</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09036144578313253</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006024096385542169</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05421686746987952</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1204819277108434</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1987951807228916</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R7">
-        <v>0.1506024096385542</v>
+        <v>0.15</v>
       </c>
       <c r="S7">
-        <v>0.3674698795180723</v>
+        <v>0.3833333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0962671905697446</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02357563850687623</v>
+        <v>0.0241635687732342</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06679764243614932</v>
+        <v>0.06319702602230483</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08447937131630648</v>
+        <v>0.08550185873605948</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02946954813359529</v>
+        <v>0.02973977695167286</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1669941060903733</v>
+        <v>0.1672862453531599</v>
       </c>
       <c r="R8">
-        <v>0.1198428290766208</v>
+        <v>0.1189591078066914</v>
       </c>
       <c r="S8">
-        <v>0.412573673870334</v>
+        <v>0.4144981412639405</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1129943502824859</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02259887005649718</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07344632768361582</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06779661016949153</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02824858757062147</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1807909604519774</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="R9">
-        <v>0.1694915254237288</v>
+        <v>0.1606217616580311</v>
       </c>
       <c r="S9">
-        <v>0.3446327683615819</v>
+        <v>0.3367875647668394</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1166407465007776</v>
+        <v>0.1143270622286541</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02021772939346812</v>
+        <v>0.02243125904486252</v>
       </c>
       <c r="E10">
-        <v>0.001555209953343701</v>
+        <v>0.001447178002894356</v>
       </c>
       <c r="F10">
-        <v>0.07387247278382582</v>
+        <v>0.0723589001447178</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08242612752721618</v>
+        <v>0.08465991316931983</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01399688958009331</v>
+        <v>0.0130246020260492</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2068429237947123</v>
+        <v>0.2040520984081042</v>
       </c>
       <c r="R10">
-        <v>0.1283048211508554</v>
+        <v>0.130246020260492</v>
       </c>
       <c r="S10">
-        <v>0.3561430793157076</v>
+        <v>0.357452966714906</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1161825726141079</v>
+        <v>0.1181102362204724</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1037344398340249</v>
+        <v>0.09842519685039371</v>
       </c>
       <c r="K11">
-        <v>0.1701244813278008</v>
+        <v>0.1692913385826772</v>
       </c>
       <c r="L11">
-        <v>0.6058091286307054</v>
+        <v>0.610236220472441</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004149377593360996</v>
+        <v>0.003937007874015748</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6887417218543046</v>
+        <v>0.7018633540372671</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2317880794701987</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="K12">
-        <v>0.006622516556291391</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.03311258278145696</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03973509933774835</v>
+        <v>0.03726708074534162</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.003937007874015748</v>
+        <v>0.003731343283582089</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1692913385826772</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="I15">
-        <v>0.06692913385826772</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="J15">
-        <v>0.3700787401574803</v>
+        <v>0.376865671641791</v>
       </c>
       <c r="K15">
-        <v>0.03149606299212598</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01574803149606299</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N15">
-        <v>0.003937007874015748</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="O15">
-        <v>0.05511811023622047</v>
+        <v>0.05223880597014925</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2834645669291339</v>
+        <v>0.2761194029850746</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01724137931034483</v>
+        <v>0.016</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1982758620689655</v>
+        <v>0.196</v>
       </c>
       <c r="I16">
-        <v>0.06465517241379311</v>
+        <v>0.064</v>
       </c>
       <c r="J16">
-        <v>0.4224137931034483</v>
+        <v>0.436</v>
       </c>
       <c r="K16">
-        <v>0.07327586206896551</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01724137931034483</v>
+        <v>0.016</v>
       </c>
       <c r="N16">
-        <v>0.004310344827586207</v>
+        <v>0.004</v>
       </c>
       <c r="O16">
-        <v>0.08189655172413793</v>
+        <v>0.08</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1206896551724138</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01777777777777778</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1911111111111111</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="I17">
-        <v>0.07777777777777778</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J17">
-        <v>0.4533333333333333</v>
+        <v>0.4541666666666667</v>
       </c>
       <c r="K17">
-        <v>0.09111111111111111</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02</v>
+        <v>0.01875</v>
       </c>
       <c r="N17">
-        <v>0.004444444444444444</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="O17">
-        <v>0.04888888888888889</v>
+        <v>0.05</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09555555555555556</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006734006734006734</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1986531986531987</v>
+        <v>0.2012578616352201</v>
       </c>
       <c r="I18">
-        <v>0.07744107744107744</v>
+        <v>0.07861635220125786</v>
       </c>
       <c r="J18">
-        <v>0.4343434343434344</v>
+        <v>0.4371069182389937</v>
       </c>
       <c r="K18">
-        <v>0.08080808080808081</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0303030303030303</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08417508417508418</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08754208754208755</v>
+        <v>0.0880503144654088</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008298755186721992</v>
+        <v>0.008566978193146417</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2257261410788382</v>
+        <v>0.221183800623053</v>
       </c>
       <c r="I19">
-        <v>0.07302904564315353</v>
+        <v>0.07398753894080996</v>
       </c>
       <c r="J19">
-        <v>0.4024896265560166</v>
+        <v>0.4065420560747663</v>
       </c>
       <c r="K19">
-        <v>0.08796680497925312</v>
+        <v>0.08878504672897196</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01659751037344398</v>
+        <v>0.01713395638629283</v>
       </c>
       <c r="N19">
-        <v>0.0008298755186721991</v>
+        <v>0.000778816199376947</v>
       </c>
       <c r="O19">
-        <v>0.08132780082987552</v>
+        <v>0.08099688473520249</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1037344398340249</v>
+        <v>0.1020249221183801</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Indiana St._A.xlsx
+++ b/team_specific_matrix/Indiana St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1832298136645963</v>
+        <v>0.177710843373494</v>
       </c>
       <c r="C2">
-        <v>0.5962732919254659</v>
+        <v>0.6054216867469879</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003105590062111801</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1459627329192547</v>
+        <v>0.141566265060241</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07142857142857142</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02525252525252525</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0101010101010101</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8585858585858586</v>
+        <v>0.8647342995169082</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1060606060606061</v>
+        <v>0.1014492753623188</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7924528301886793</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2075471698113208</v>
+        <v>0.1929824561403509</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04977375565610859</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01357466063348416</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04072398190045249</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1945701357466063</v>
+        <v>0.1885964912280702</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04072398190045249</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1855203619909502</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="R6">
-        <v>0.09954751131221719</v>
+        <v>0.1008771929824561</v>
       </c>
       <c r="S6">
-        <v>0.3755656108597285</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08888888888888889</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005555555555555556</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05555555555555555</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01111111111111111</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1944444444444444</v>
+        <v>0.1925133689839572</v>
       </c>
       <c r="R7">
-        <v>0.15</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="S7">
-        <v>0.3833333333333334</v>
+        <v>0.3903743315508021</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09665427509293681</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0241635687732342</v>
+        <v>0.02508960573476703</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06319702602230483</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08550185873605948</v>
+        <v>0.08243727598566308</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02973977695167286</v>
+        <v>0.02867383512544803</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1672862453531599</v>
+        <v>0.1630824372759857</v>
       </c>
       <c r="R8">
-        <v>0.1189591078066914</v>
+        <v>0.1254480286738351</v>
       </c>
       <c r="S8">
-        <v>0.4144981412639405</v>
+        <v>0.4139784946236559</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1088082901554404</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02590673575129534</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07253886010362694</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07772020725388601</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02590673575129534</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1917098445595855</v>
+        <v>0.185929648241206</v>
       </c>
       <c r="R9">
-        <v>0.1606217616580311</v>
+        <v>0.1608040201005025</v>
       </c>
       <c r="S9">
-        <v>0.3367875647668394</v>
+        <v>0.3467336683417085</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1143270622286541</v>
+        <v>0.1166077738515901</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02243125904486252</v>
+        <v>0.02332155477031802</v>
       </c>
       <c r="E10">
-        <v>0.001447178002894356</v>
+        <v>0.001413427561837456</v>
       </c>
       <c r="F10">
-        <v>0.0723589001447178</v>
+        <v>0.07208480565371024</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08465991316931983</v>
+        <v>0.0833922261484099</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0130246020260492</v>
+        <v>0.0127208480565371</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2040520984081042</v>
+        <v>0.2049469964664311</v>
       </c>
       <c r="R10">
-        <v>0.130246020260492</v>
+        <v>0.1293286219081272</v>
       </c>
       <c r="S10">
-        <v>0.357452966714906</v>
+        <v>0.3561837455830389</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1181102362204724</v>
+        <v>0.1183206106870229</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09842519685039371</v>
+        <v>0.09541984732824428</v>
       </c>
       <c r="K11">
-        <v>0.1692913385826772</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L11">
-        <v>0.610236220472441</v>
+        <v>0.6145038167938931</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003937007874015748</v>
+        <v>0.003816793893129771</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7018633540372671</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2173913043478261</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.03726708074534162</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03726708074534162</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7872340425531915</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2127659574468085</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.003731343283582089</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1716417910447761</v>
+        <v>0.1684981684981685</v>
       </c>
       <c r="I15">
-        <v>0.06716417910447761</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="J15">
-        <v>0.376865671641791</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="K15">
-        <v>0.02985074626865672</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01492537313432836</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="N15">
-        <v>0.007462686567164179</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="O15">
-        <v>0.05223880597014925</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2761194029850746</v>
+        <v>0.271062271062271</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.016</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.196</v>
+        <v>0.1939163498098859</v>
       </c>
       <c r="I16">
-        <v>0.064</v>
+        <v>0.06844106463878327</v>
       </c>
       <c r="J16">
-        <v>0.436</v>
+        <v>0.4372623574144487</v>
       </c>
       <c r="K16">
-        <v>0.07199999999999999</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.016</v>
+        <v>0.01520912547528517</v>
       </c>
       <c r="N16">
-        <v>0.004</v>
+        <v>0.003802281368821293</v>
       </c>
       <c r="O16">
-        <v>0.08</v>
+        <v>0.07984790874524715</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.116</v>
+        <v>0.1140684410646388</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01666666666666667</v>
+        <v>0.01622718052738337</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1916666666666667</v>
+        <v>0.1947261663286004</v>
       </c>
       <c r="I17">
-        <v>0.08333333333333333</v>
+        <v>0.08316430020283976</v>
       </c>
       <c r="J17">
-        <v>0.4541666666666667</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="K17">
-        <v>0.08749999999999999</v>
+        <v>0.08924949290060852</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01875</v>
+        <v>0.01825557809330629</v>
       </c>
       <c r="N17">
-        <v>0.004166666666666667</v>
+        <v>0.004056795131845842</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.0486815415821501</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09375</v>
+        <v>0.0973630831643002</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.006289308176100629</v>
+        <v>0.0060790273556231</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2012578616352201</v>
+        <v>0.2006079027355623</v>
       </c>
       <c r="I18">
-        <v>0.07861635220125786</v>
+        <v>0.0790273556231003</v>
       </c>
       <c r="J18">
-        <v>0.4371069182389937</v>
+        <v>0.4437689969604863</v>
       </c>
       <c r="K18">
-        <v>0.07547169811320754</v>
+        <v>0.0729483282674772</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02830188679245283</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08490566037735849</v>
+        <v>0.08206686930091185</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0880503144654088</v>
+        <v>0.08814589665653495</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008566978193146417</v>
+        <v>0.00832072617246596</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.221183800623053</v>
+        <v>0.2239031770045386</v>
       </c>
       <c r="I19">
-        <v>0.07398753894080996</v>
+        <v>0.07337367624810892</v>
       </c>
       <c r="J19">
-        <v>0.4065420560747663</v>
+        <v>0.4031770045385779</v>
       </c>
       <c r="K19">
-        <v>0.08878504672897196</v>
+        <v>0.08850226928895613</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01713395638629283</v>
+        <v>0.01739788199697428</v>
       </c>
       <c r="N19">
-        <v>0.000778816199376947</v>
+        <v>0.0007564296520423601</v>
       </c>
       <c r="O19">
-        <v>0.08099688473520249</v>
+        <v>0.08093797276853253</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1020249221183801</v>
+        <v>0.1036308623298033</v>
       </c>
     </row>
   </sheetData>
